--- a/Diagramme/MockData.xlsx
+++ b/Diagramme/MockData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\InfinityApp\Diagramme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\InfinityApp\Diagramme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D78162A0-CC1A-4F78-84B7-40F1DC3809AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57806F1-C75B-4CCE-97A6-FDD73B15928E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{70A20707-9AD3-4C0C-841E-3F2241C5058F}"/>
+    <workbookView xWindow="1110" yWindow="-120" windowWidth="27810" windowHeight="16440" xr2:uid="{70A20707-9AD3-4C0C-841E-3F2241C5058F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>Person</t>
   </si>
@@ -130,24 +129,12 @@
     <t>TPID(PK)</t>
   </si>
   <si>
-    <t>Sätze</t>
-  </si>
-  <si>
     <t>Wiederholungen</t>
   </si>
   <si>
     <t>GEID(FK)</t>
   </si>
   <si>
-    <t>Trainingsplanhistorie</t>
-  </si>
-  <si>
-    <t>THID(PK)</t>
-  </si>
-  <si>
-    <t>Nutzungsdauer</t>
-  </si>
-  <si>
     <t>PEID(FK)</t>
   </si>
   <si>
@@ -158,12 +145,168 @@
   </si>
   <si>
     <t>Trainingstag</t>
+  </si>
+  <si>
+    <t>Aktiv</t>
+  </si>
+  <si>
+    <t>Germut</t>
+  </si>
+  <si>
+    <t>Bussmann</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Thilhove</t>
+  </si>
+  <si>
+    <t>Waldthurn</t>
+  </si>
+  <si>
+    <t>Burgacker</t>
+  </si>
+  <si>
+    <t>Köperich</t>
+  </si>
+  <si>
+    <t>Eichenallee</t>
+  </si>
+  <si>
+    <t>Saalstadt</t>
+  </si>
+  <si>
+    <t>Dietolf</t>
+  </si>
+  <si>
+    <t>Caldwell</t>
+  </si>
+  <si>
+    <t>Kurt</t>
+  </si>
+  <si>
+    <t>Rodriquez</t>
+  </si>
+  <si>
+    <t>Frohnhauser Straße</t>
+  </si>
+  <si>
+    <t>Essen</t>
+  </si>
+  <si>
+    <t>0 Uhr - 0 Uhr</t>
+  </si>
+  <si>
+    <t>Brust</t>
+  </si>
+  <si>
+    <t>Rücken</t>
+  </si>
+  <si>
+    <t>Beine</t>
+  </si>
+  <si>
+    <t>Arme</t>
+  </si>
+  <si>
+    <t>Brustpresse</t>
+  </si>
+  <si>
+    <t>Latzug</t>
+  </si>
+  <si>
+    <t>Butterfly reverse</t>
+  </si>
+  <si>
+    <t>T- Bar rudern</t>
+  </si>
+  <si>
+    <t>Beinstrecker</t>
+  </si>
+  <si>
+    <t>Beinbeuger</t>
+  </si>
+  <si>
+    <t>Wadenmaschine</t>
+  </si>
+  <si>
+    <t>Bizepsmaschine</t>
+  </si>
+  <si>
+    <t>Trizepsmaschine</t>
+  </si>
+  <si>
+    <t>Schrägbank</t>
+  </si>
+  <si>
+    <t>Butterfy</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>McFit</t>
+  </si>
+  <si>
+    <t>Montag</t>
+  </si>
+  <si>
+    <t>Dienstag</t>
+  </si>
+  <si>
+    <t>UEID(FK)</t>
+  </si>
+  <si>
+    <t>UEID(PK)</t>
+  </si>
+  <si>
+    <t>Saetze</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>0,3,6,9</t>
+  </si>
+  <si>
+    <t>1,4,7,9</t>
+  </si>
+  <si>
+    <t>3,5,8,10</t>
+  </si>
+  <si>
+    <t>DietCald</t>
+  </si>
+  <si>
+    <t>RodriK</t>
+  </si>
+  <si>
+    <t>GeBuss</t>
+  </si>
+  <si>
+    <t>Mittwoch</t>
+  </si>
+  <si>
+    <t>inaktiv</t>
+  </si>
+  <si>
+    <t>Cardio erstmal raus</t>
+  </si>
+  <si>
+    <t>Körperdaten</t>
+  </si>
+  <si>
+    <t>-&gt; gewicht</t>
+  </si>
+  <si>
+    <t>Übung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,7 +328,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,8 +347,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -358,32 +513,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -399,6 +550,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -408,21 +563,157 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{768E6517-7477-4528-B723-E1CB6FCF316C}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -731,379 +1022,1184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A947B1-AE17-4BF6-AE74-C7FE7487405B}">
-  <dimension ref="B1:X18"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-    </row>
-    <row r="2" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="O2" s="24" t="s">
+    <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="14"/>
+    </row>
+    <row r="2" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="31"/>
+      <c r="Q2" s="14"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="17"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="Q3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="26"/>
-      <c r="U2" s="24" t="s">
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32">
+        <v>0</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="57">
+        <v>37620</v>
+      </c>
+      <c r="G4" s="33">
+        <v>178</v>
+      </c>
+      <c r="H4" s="33">
+        <v>76</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33">
+        <v>0</v>
+      </c>
+      <c r="L4" s="33">
+        <v>0</v>
+      </c>
+      <c r="M4" s="34">
+        <v>0</v>
+      </c>
+      <c r="N4" s="31"/>
+      <c r="Q4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" s="14"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="35">
+        <v>1</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="58">
+        <v>33598</v>
+      </c>
+      <c r="G5" s="36">
+        <v>175</v>
+      </c>
+      <c r="H5" s="36">
+        <v>122</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36">
+        <v>1</v>
+      </c>
+      <c r="L5" s="36">
+        <v>1</v>
+      </c>
+      <c r="M5" s="37">
+        <v>0</v>
+      </c>
+      <c r="N5" s="31"/>
+      <c r="Q5" s="32">
+        <v>0</v>
+      </c>
+      <c r="R5" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="33">
+        <v>67</v>
+      </c>
+      <c r="T5" s="33">
+        <v>92727</v>
+      </c>
+      <c r="U5" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="X5" s="14"/>
+    </row>
+    <row r="6" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="38">
+        <v>2</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="59">
+        <v>32577</v>
+      </c>
+      <c r="G6" s="39">
+        <v>185</v>
+      </c>
+      <c r="H6" s="39">
+        <v>83</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39">
+        <v>2</v>
+      </c>
+      <c r="L6" s="39">
+        <v>2</v>
+      </c>
+      <c r="M6" s="40">
+        <v>0</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="Q6" s="35">
+        <v>1</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" s="36">
+        <v>186</v>
+      </c>
+      <c r="T6" s="36">
+        <v>54675</v>
+      </c>
+      <c r="U6" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="X6" s="14"/>
+    </row>
+    <row r="7" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="Q7" s="35">
+        <v>2</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="36">
+        <v>137</v>
+      </c>
+      <c r="T7" s="36">
+        <v>66919</v>
+      </c>
+      <c r="U7" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+    </row>
+    <row r="8" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
+      <c r="B8" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="29"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="38">
+        <v>3</v>
+      </c>
+      <c r="R8" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="39">
+        <v>69</v>
+      </c>
+      <c r="T8" s="39">
+        <v>45127</v>
+      </c>
+      <c r="U8" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
+      <c r="B9" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="14"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="31">
+        <v>0</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="31">
+        <v>0</v>
+      </c>
+      <c r="E10" s="37">
+        <v>0</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="35">
+        <v>0</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="35">
+        <v>0</v>
+      </c>
+      <c r="L10" s="36">
+        <v>3</v>
+      </c>
+      <c r="M10" s="36">
+        <v>12</v>
+      </c>
+      <c r="N10" s="1">
+        <v>55</v>
+      </c>
+      <c r="O10" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="31">
+        <v>1</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="31">
+        <v>1</v>
+      </c>
+      <c r="E11" s="37">
+        <v>1</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="35">
+        <v>1</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="36"/>
+      <c r="K11" s="35">
+        <v>1</v>
+      </c>
+      <c r="L11" s="36">
+        <v>3</v>
+      </c>
+      <c r="M11" s="36">
+        <v>12</v>
+      </c>
+      <c r="N11" s="1">
+        <v>45</v>
+      </c>
+      <c r="O11" s="67">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+    </row>
+    <row r="12" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="B12" s="38">
+        <v>2</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="39">
+        <v>2</v>
+      </c>
+      <c r="E12" s="40">
+        <v>2</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="38">
+        <v>2</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="38">
+        <v>2</v>
+      </c>
+      <c r="L12" s="39">
+        <v>3</v>
+      </c>
+      <c r="M12" s="39">
+        <v>12</v>
+      </c>
+      <c r="N12" s="63">
+        <v>12</v>
+      </c>
+      <c r="O12" s="68">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="35">
+        <v>3</v>
+      </c>
+      <c r="L13" s="36">
+        <v>3</v>
+      </c>
+      <c r="M13" s="36">
+        <v>12</v>
+      </c>
+      <c r="N13" s="36">
+        <v>60</v>
+      </c>
+      <c r="O13" s="37">
+        <v>3</v>
+      </c>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+    </row>
+    <row r="14" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="35">
+        <v>4</v>
+      </c>
+      <c r="L14" s="36">
+        <v>3</v>
+      </c>
+      <c r="M14" s="36">
+        <v>12</v>
+      </c>
+      <c r="N14" s="36">
+        <v>25</v>
+      </c>
+      <c r="O14" s="37">
+        <v>4</v>
+      </c>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+    </row>
+    <row r="15" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="56"/>
+      <c r="K15" s="38">
+        <v>5</v>
+      </c>
+      <c r="L15" s="63">
+        <v>3</v>
+      </c>
+      <c r="M15" s="63">
+        <v>12</v>
+      </c>
+      <c r="N15" s="39">
+        <v>35</v>
+      </c>
+      <c r="O15" s="40">
+        <v>5</v>
+      </c>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="35">
+        <v>6</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3</v>
+      </c>
+      <c r="M16" s="1">
+        <v>12</v>
+      </c>
+      <c r="N16" s="36">
+        <v>60</v>
+      </c>
+      <c r="O16" s="37">
+        <v>6</v>
+      </c>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="35">
+        <v>0</v>
+      </c>
+      <c r="C17" s="36">
+        <v>110</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="37">
+        <v>0</v>
+      </c>
+      <c r="F17" s="72">
+        <v>0</v>
+      </c>
+      <c r="H17" s="35">
+        <v>0</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="35">
+        <v>7</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3</v>
+      </c>
+      <c r="M17" s="1">
+        <v>12</v>
+      </c>
+      <c r="N17" s="36">
+        <v>65</v>
+      </c>
+      <c r="O17" s="37">
+        <v>7</v>
+      </c>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+    </row>
+    <row r="18" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="35">
+        <v>1</v>
+      </c>
+      <c r="C18" s="36">
+        <v>130</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="37">
+        <v>0</v>
+      </c>
+      <c r="F18" s="72">
+        <v>0</v>
+      </c>
+      <c r="H18" s="35">
+        <v>1</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="38">
+        <v>8</v>
+      </c>
+      <c r="L18" s="63">
+        <v>3</v>
+      </c>
+      <c r="M18" s="63">
+        <v>12</v>
+      </c>
+      <c r="N18" s="39">
+        <v>70</v>
+      </c>
+      <c r="O18" s="40">
+        <v>8</v>
+      </c>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="X18" s="14"/>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="35">
+        <v>2</v>
+      </c>
+      <c r="C19" s="36">
+        <v>48</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="37">
+        <v>0</v>
+      </c>
+      <c r="F19" s="72">
+        <v>0</v>
+      </c>
+      <c r="H19" s="35">
+        <v>2</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="35">
         <v>9</v>
       </c>
-      <c r="V2" s="25"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="3"/>
-    </row>
-    <row r="3" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="L19" s="1">
+        <v>3</v>
+      </c>
+      <c r="M19" s="1">
+        <v>12</v>
+      </c>
+      <c r="N19" s="36">
+        <v>35</v>
+      </c>
+      <c r="O19" s="37">
+        <v>9</v>
+      </c>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+    </row>
+    <row r="20" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="31">
+        <v>3</v>
+      </c>
+      <c r="C20" s="31">
+        <v>80</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="37">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="F20" s="72">
+        <v>0</v>
+      </c>
+      <c r="H20" s="38">
+        <v>3</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="38">
+        <v>10</v>
+      </c>
+      <c r="L20" s="39">
+        <v>3</v>
+      </c>
+      <c r="M20" s="39">
+        <v>12</v>
+      </c>
+      <c r="N20" s="39">
+        <v>70</v>
+      </c>
+      <c r="O20" s="68">
+        <v>10</v>
+      </c>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+    </row>
+    <row r="21" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="31">
+        <v>4</v>
+      </c>
+      <c r="C21" s="31">
+        <v>70</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="37">
+        <v>1</v>
+      </c>
+      <c r="F21" s="72">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+    </row>
+    <row r="22" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="31">
+        <v>5</v>
+      </c>
+      <c r="C22" s="31">
+        <v>50</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="37">
+        <v>1</v>
+      </c>
+      <c r="F22" s="72">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="61"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+    </row>
+    <row r="23" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="31">
+        <v>6</v>
+      </c>
+      <c r="C23" s="31">
+        <v>90</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="37">
         <v>2</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F23" s="72">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="31">
+        <v>7</v>
+      </c>
+      <c r="C24" s="31">
+        <v>90</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="37">
+        <v>2</v>
+      </c>
+      <c r="F24" s="72">
+        <v>0</v>
+      </c>
+      <c r="H24" s="32">
+        <v>0</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="34">
         <v>3</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="22" t="s">
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="31">
         <v>8</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" s="19" t="s">
+      <c r="C25" s="60">
+        <v>100</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="37">
+        <v>2</v>
+      </c>
+      <c r="F25" s="73">
+        <v>0</v>
+      </c>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="47"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+    </row>
+    <row r="26" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="31">
+        <v>9</v>
+      </c>
+      <c r="C26" s="60">
+        <v>80</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="37">
+        <v>3</v>
+      </c>
+      <c r="F26" s="73">
+        <v>0</v>
+      </c>
+      <c r="H26" s="38"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="47"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="39">
         <v>10</v>
       </c>
-      <c r="W3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="X3" s="3"/>
-    </row>
-    <row r="4" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="14"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="33"/>
-    </row>
-    <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="14"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="33"/>
-    </row>
-    <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="12"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="6"/>
-    </row>
-    <row r="7" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="H8" s="4"/>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="O8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="30"/>
-      <c r="U8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="30"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="H9" s="4"/>
-      <c r="I9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="V9" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="W9" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="H10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="4"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="4"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="H11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="4"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="4"/>
-    </row>
-    <row r="12" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="6"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="6"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="6"/>
-    </row>
-    <row r="13" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="29"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="N14" s="4"/>
-      <c r="O14" t="s">
-        <v>34</v>
-      </c>
-      <c r="R14" s="30"/>
-      <c r="S14" s="31"/>
-      <c r="U14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V14" s="30"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="N15" s="4"/>
-      <c r="O15" t="s">
-        <v>35</v>
-      </c>
-      <c r="P15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>11</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S15" s="31"/>
-      <c r="U15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="N16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="31"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="4"/>
-    </row>
-    <row r="17" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="31"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="4"/>
-    </row>
-    <row r="18" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N18" s="4"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="31"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="6"/>
+      <c r="C27" s="69">
+        <v>100</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="40">
+        <v>3</v>
+      </c>
+      <c r="F27" s="74">
+        <v>0</v>
+      </c>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="9:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="9:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I34" s="22"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="O2:S2"/>
+  <mergeCells count="7">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="Q3:U3"/>
     <mergeCell ref="B2:M2"/>
-    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Diagramme/MockData.xlsx
+++ b/Diagramme/MockData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\InfinityApp\Diagramme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\InfinityApp\Diagramme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57806F1-C75B-4CCE-97A6-FDD73B15928E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3720BC9D-A07D-43A2-AEC4-726DA8F0DED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="-120" windowWidth="27810" windowHeight="16440" xr2:uid="{70A20707-9AD3-4C0C-841E-3F2241C5058F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{70A20707-9AD3-4C0C-841E-3F2241C5058F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>Person</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Geschlecht</t>
   </si>
   <si>
-    <t>BMI</t>
-  </si>
-  <si>
     <t>Gym</t>
   </si>
   <si>
@@ -291,16 +288,34 @@
     <t>inaktiv</t>
   </si>
   <si>
-    <t>Cardio erstmal raus</t>
-  </si>
-  <si>
     <t>Körperdaten</t>
   </si>
   <si>
-    <t>-&gt; gewicht</t>
-  </si>
-  <si>
     <t>Übung</t>
+  </si>
+  <si>
+    <t>Trainingsergebnisse</t>
+  </si>
+  <si>
+    <t>TEID(PK)</t>
+  </si>
+  <si>
+    <t>MaxErreichtesGewicht</t>
+  </si>
+  <si>
+    <t>MaxErreichteWiederholungen</t>
+  </si>
+  <si>
+    <t>Trainingsplan.TPID.UEID(FK)</t>
+  </si>
+  <si>
+    <t>Trainingstag(Trainingsende-Trainingsstart)</t>
+  </si>
+  <si>
+    <t>KDID(FK)</t>
+  </si>
+  <si>
+    <t>KDID(PK)</t>
   </si>
 </sst>
 </file>
@@ -554,15 +569,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -642,24 +648,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,6 +692,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1025,7 +1040,7 @@
   <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,9 +1052,10 @@
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
     <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
@@ -1052,57 +1068,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="14"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="11"/>
     </row>
     <row r="2" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="31"/>
-      <c r="Q2" s="14"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="28"/>
+      <c r="Q2" s="11"/>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
-      <c r="X2" s="17"/>
+      <c r="X2" s="14"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>1</v>
@@ -1119,569 +1135,567 @@
       <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="H3" s="6"/>
       <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="M3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="1"/>
-      <c r="Q3" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="53"/>
+      <c r="Q3" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="68"/>
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
-      <c r="X3" s="17"/>
+      <c r="X3" s="14"/>
     </row>
     <row r="4" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32">
-        <v>0</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="33" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29">
+        <v>0</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="48">
+        <v>37620</v>
+      </c>
+      <c r="G4" s="30">
+        <v>178</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="57">
-        <v>37620</v>
-      </c>
-      <c r="G4" s="33">
-        <v>178</v>
-      </c>
-      <c r="H4" s="33">
+      <c r="J4" s="30">
+        <v>0</v>
+      </c>
+      <c r="K4" s="30">
+        <v>0</v>
+      </c>
+      <c r="L4" s="30">
+        <v>0</v>
+      </c>
+      <c r="M4" s="31">
+        <v>0</v>
+      </c>
+      <c r="N4" s="28"/>
+      <c r="Q4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="11"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="32">
+        <v>1</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="49">
+        <v>33598</v>
+      </c>
+      <c r="G5" s="33">
+        <v>175</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="33">
+        <v>1</v>
+      </c>
+      <c r="K5" s="33">
+        <v>1</v>
+      </c>
+      <c r="L5" s="33">
+        <v>1</v>
+      </c>
+      <c r="M5" s="34">
+        <v>0</v>
+      </c>
+      <c r="N5" s="28"/>
+      <c r="Q5" s="29">
+        <v>0</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="30">
+        <v>67</v>
+      </c>
+      <c r="T5" s="30">
+        <v>92727</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="X5" s="11"/>
+    </row>
+    <row r="6" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="35">
+        <v>2</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="50">
+        <v>32577</v>
+      </c>
+      <c r="G6" s="36">
+        <v>185</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="36">
+        <v>2</v>
+      </c>
+      <c r="K6" s="36">
+        <v>2</v>
+      </c>
+      <c r="L6" s="36">
+        <v>2</v>
+      </c>
+      <c r="M6" s="37">
+        <v>0</v>
+      </c>
+      <c r="N6" s="28"/>
+      <c r="Q6" s="32">
+        <v>1</v>
+      </c>
+      <c r="R6" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="33">
+        <v>186</v>
+      </c>
+      <c r="T6" s="33">
+        <v>54675</v>
+      </c>
+      <c r="U6" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" s="11"/>
+    </row>
+    <row r="7" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="Q7" s="32">
+        <v>2</v>
+      </c>
+      <c r="R7" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="33">
+        <v>137</v>
+      </c>
+      <c r="T7" s="33">
+        <v>66919</v>
+      </c>
+      <c r="U7" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="73"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="35">
+        <v>3</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="36">
+        <v>69</v>
+      </c>
+      <c r="T8" s="36">
+        <v>45127</v>
+      </c>
+      <c r="U8" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0</v>
+      </c>
+      <c r="E10" s="34">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="32">
+        <v>0</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33">
-        <v>0</v>
-      </c>
-      <c r="L4" s="33">
-        <v>0</v>
-      </c>
-      <c r="M4" s="34">
-        <v>0</v>
-      </c>
-      <c r="N4" s="31"/>
-      <c r="Q4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="X4" s="14"/>
-    </row>
-    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="35">
-        <v>1</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="58">
-        <v>33598</v>
-      </c>
-      <c r="G5" s="36">
-        <v>175</v>
-      </c>
-      <c r="H5" s="36">
-        <v>122</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36">
-        <v>1</v>
-      </c>
-      <c r="L5" s="36">
-        <v>1</v>
-      </c>
-      <c r="M5" s="37">
-        <v>0</v>
-      </c>
-      <c r="N5" s="31"/>
-      <c r="Q5" s="32">
-        <v>0</v>
-      </c>
-      <c r="R5" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" s="33">
-        <v>67</v>
-      </c>
-      <c r="T5" s="33">
-        <v>92727</v>
-      </c>
-      <c r="U5" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="V5" s="2"/>
-      <c r="X5" s="14"/>
-    </row>
-    <row r="6" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="38">
-        <v>2</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="59">
-        <v>32577</v>
-      </c>
-      <c r="G6" s="39">
-        <v>185</v>
-      </c>
-      <c r="H6" s="39">
-        <v>83</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39">
-        <v>2</v>
-      </c>
-      <c r="L6" s="39">
-        <v>2</v>
-      </c>
-      <c r="M6" s="40">
-        <v>0</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="Q6" s="35">
-        <v>1</v>
-      </c>
-      <c r="R6" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="36">
-        <v>186</v>
-      </c>
-      <c r="T6" s="36">
-        <v>54675</v>
-      </c>
-      <c r="U6" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="X6" s="14"/>
-    </row>
-    <row r="7" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="Q7" s="35">
-        <v>2</v>
-      </c>
-      <c r="R7" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" s="36">
-        <v>137</v>
-      </c>
-      <c r="T7" s="36">
-        <v>66919</v>
-      </c>
-      <c r="U7" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-    </row>
-    <row r="8" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="38">
+      <c r="J10" s="33"/>
+      <c r="K10" s="32">
+        <v>0</v>
+      </c>
+      <c r="L10" s="33">
         <v>3</v>
       </c>
-      <c r="R8" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="S8" s="39">
-        <v>69</v>
-      </c>
-      <c r="T8" s="39">
-        <v>45127</v>
-      </c>
-      <c r="U8" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
-      <c r="B9" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="14"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="31">
-        <v>0</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="31">
-        <v>0</v>
-      </c>
-      <c r="E10" s="37">
-        <v>0</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="35">
-        <v>0</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="35">
-        <v>0</v>
-      </c>
-      <c r="L10" s="36">
-        <v>3</v>
-      </c>
-      <c r="M10" s="36">
+      <c r="M10" s="33">
         <v>12</v>
       </c>
       <c r="N10" s="1">
         <v>55</v>
       </c>
-      <c r="O10" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="14"/>
+      <c r="O10" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="11"/>
     </row>
     <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="31">
+      <c r="A11" s="34"/>
+      <c r="B11" s="28">
         <v>1</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="31">
+      <c r="C11" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="28">
         <v>1</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="34">
         <v>1</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="35">
+      <c r="F11" s="28"/>
+      <c r="G11" s="32">
         <v>1</v>
       </c>
-      <c r="H11" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="35">
+      <c r="H11" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="K11" s="32">
         <v>1</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="33">
         <v>3</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="33">
         <v>12</v>
       </c>
       <c r="N11" s="1">
         <v>45</v>
       </c>
-      <c r="O11" s="67">
+      <c r="O11" s="58">
         <v>1</v>
       </c>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
     </row>
     <row r="12" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="38">
+      <c r="A12" s="28"/>
+      <c r="B12" s="35">
         <v>2</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="39">
+      <c r="C12" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="36">
         <v>2</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="37">
         <v>2</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="38">
+      <c r="F12" s="28"/>
+      <c r="G12" s="35">
         <v>2</v>
       </c>
-      <c r="H12" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="38">
+      <c r="H12" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="33"/>
+      <c r="K12" s="35">
         <v>2</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="36">
         <v>3</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="36">
         <v>12</v>
       </c>
-      <c r="N12" s="63">
+      <c r="N12" s="54">
         <v>12</v>
       </c>
-      <c r="O12" s="68">
+      <c r="O12" s="59">
         <v>2</v>
       </c>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
     </row>
     <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="35">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="32">
         <v>3</v>
       </c>
-      <c r="L13" s="36">
+      <c r="L13" s="33">
         <v>3</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="33">
         <v>12</v>
       </c>
-      <c r="N13" s="36">
+      <c r="N13" s="33">
         <v>60</v>
       </c>
-      <c r="O13" s="37">
+      <c r="O13" s="34">
         <v>3</v>
       </c>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
     </row>
     <row r="14" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="35">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="32">
         <v>4</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="33">
         <v>3</v>
       </c>
-      <c r="M14" s="36">
+      <c r="M14" s="33">
         <v>12</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14" s="33">
         <v>25</v>
       </c>
-      <c r="O14" s="37">
+      <c r="O14" s="34">
         <v>4</v>
       </c>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
     </row>
     <row r="15" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="54" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="71"/>
+      <c r="K15" s="35">
+        <v>5</v>
+      </c>
+      <c r="L15" s="54">
+        <v>3</v>
+      </c>
+      <c r="M15" s="54">
+        <v>12</v>
+      </c>
+      <c r="N15" s="36">
+        <v>35</v>
+      </c>
+      <c r="O15" s="37">
+        <v>5</v>
+      </c>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="54" t="s">
+      <c r="C16" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="56"/>
-      <c r="K15" s="38">
-        <v>5</v>
-      </c>
-      <c r="L15" s="63">
-        <v>3</v>
-      </c>
-      <c r="M15" s="63">
-        <v>12</v>
-      </c>
-      <c r="N15" s="39">
-        <v>35</v>
-      </c>
-      <c r="O15" s="40">
-        <v>5</v>
-      </c>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="48" t="s">
+      <c r="I16" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="35">
+      <c r="K16" s="32">
         <v>6</v>
       </c>
       <c r="L16" s="1">
@@ -1690,40 +1704,40 @@
       <c r="M16" s="1">
         <v>12</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="33">
         <v>60</v>
       </c>
-      <c r="O16" s="37">
+      <c r="O16" s="34">
         <v>6</v>
       </c>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="35">
-        <v>0</v>
-      </c>
-      <c r="C17" s="36">
+      <c r="A17" s="28"/>
+      <c r="B17" s="32">
+        <v>0</v>
+      </c>
+      <c r="C17" s="33">
         <v>110</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="37">
-        <v>0</v>
-      </c>
-      <c r="F17" s="72">
-        <v>0</v>
-      </c>
-      <c r="H17" s="35">
-        <v>0</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="35">
+      <c r="D17" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="34">
+        <v>0</v>
+      </c>
+      <c r="F17" s="63">
+        <v>0</v>
+      </c>
+      <c r="H17" s="32">
+        <v>0</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="32">
         <v>7</v>
       </c>
       <c r="L17" s="1">
@@ -1732,83 +1746,83 @@
       <c r="M17" s="1">
         <v>12</v>
       </c>
-      <c r="N17" s="36">
+      <c r="N17" s="33">
         <v>65</v>
       </c>
-      <c r="O17" s="37">
+      <c r="O17" s="34">
         <v>7</v>
       </c>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
     </row>
     <row r="18" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="35">
+      <c r="A18" s="28"/>
+      <c r="B18" s="32">
         <v>1</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="33">
         <v>130</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="34">
+        <v>0</v>
+      </c>
+      <c r="F18" s="63">
+        <v>0</v>
+      </c>
+      <c r="H18" s="32">
+        <v>1</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="35">
+        <v>8</v>
+      </c>
+      <c r="L18" s="54">
+        <v>3</v>
+      </c>
+      <c r="M18" s="54">
+        <v>12</v>
+      </c>
+      <c r="N18" s="36">
+        <v>70</v>
+      </c>
+      <c r="O18" s="37">
+        <v>8</v>
+      </c>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="X18" s="11"/>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="32">
+        <v>2</v>
+      </c>
+      <c r="C19" s="33">
+        <v>48</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="37">
-        <v>0</v>
-      </c>
-      <c r="F18" s="72">
-        <v>0</v>
-      </c>
-      <c r="H18" s="35">
-        <v>1</v>
-      </c>
-      <c r="I18" s="37" t="s">
+      <c r="E19" s="34">
+        <v>0</v>
+      </c>
+      <c r="F19" s="63">
+        <v>0</v>
+      </c>
+      <c r="H19" s="32">
+        <v>2</v>
+      </c>
+      <c r="I19" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="38">
-        <v>8</v>
-      </c>
-      <c r="L18" s="63">
-        <v>3</v>
-      </c>
-      <c r="M18" s="63">
-        <v>12</v>
-      </c>
-      <c r="N18" s="39">
-        <v>70</v>
-      </c>
-      <c r="O18" s="40">
-        <v>8</v>
-      </c>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="X18" s="14"/>
-    </row>
-    <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="35">
-        <v>2</v>
-      </c>
-      <c r="C19" s="36">
-        <v>48</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="37">
-        <v>0</v>
-      </c>
-      <c r="F19" s="72">
-        <v>0</v>
-      </c>
-      <c r="H19" s="35">
-        <v>2</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="35">
+      <c r="K19" s="32">
         <v>9</v>
       </c>
       <c r="L19" s="1">
@@ -1817,365 +1831,415 @@
       <c r="M19" s="1">
         <v>12</v>
       </c>
-      <c r="N19" s="36">
+      <c r="N19" s="33">
         <v>35</v>
       </c>
-      <c r="O19" s="37">
+      <c r="O19" s="34">
         <v>9</v>
       </c>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
     </row>
     <row r="20" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="31">
+      <c r="A20" s="12"/>
+      <c r="B20" s="28">
         <v>3</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="28">
         <v>80</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="34">
+        <v>1</v>
+      </c>
+      <c r="F20" s="63">
+        <v>0</v>
+      </c>
+      <c r="H20" s="35">
+        <v>3</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="35">
+        <v>10</v>
+      </c>
+      <c r="L20" s="36">
+        <v>3</v>
+      </c>
+      <c r="M20" s="36">
+        <v>12</v>
+      </c>
+      <c r="N20" s="36">
+        <v>70</v>
+      </c>
+      <c r="O20" s="59">
+        <v>10</v>
+      </c>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+    </row>
+    <row r="21" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="28">
+        <v>4</v>
+      </c>
+      <c r="C21" s="28">
+        <v>70</v>
+      </c>
+      <c r="D21" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E21" s="34">
         <v>1</v>
       </c>
-      <c r="F20" s="72">
-        <v>0</v>
-      </c>
-      <c r="H20" s="38">
+      <c r="F21" s="63">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+    </row>
+    <row r="22" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="28">
+        <v>5</v>
+      </c>
+      <c r="C22" s="28">
+        <v>50</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="34">
+        <v>1</v>
+      </c>
+      <c r="F22" s="63">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="52"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+    </row>
+    <row r="23" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="28">
+        <v>6</v>
+      </c>
+      <c r="C23" s="28">
+        <v>90</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="34">
+        <v>2</v>
+      </c>
+      <c r="F23" s="63">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="28">
+        <v>7</v>
+      </c>
+      <c r="C24" s="28">
+        <v>90</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="34">
+        <v>2</v>
+      </c>
+      <c r="F24" s="63">
+        <v>0</v>
+      </c>
+      <c r="H24" s="29">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="31">
         <v>3</v>
       </c>
-      <c r="I20" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="38">
-        <v>10</v>
-      </c>
-      <c r="L20" s="39">
-        <v>3</v>
-      </c>
-      <c r="M20" s="39">
-        <v>12</v>
-      </c>
-      <c r="N20" s="39">
-        <v>70</v>
-      </c>
-      <c r="O20" s="68">
-        <v>10</v>
-      </c>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-    </row>
-    <row r="21" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="31">
-        <v>4</v>
-      </c>
-      <c r="C21" s="31">
-        <v>70</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="37">
-        <v>1</v>
-      </c>
-      <c r="F21" s="72">
-        <v>0</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-    </row>
-    <row r="22" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="31">
-        <v>5</v>
-      </c>
-      <c r="C22" s="31">
-        <v>50</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="37">
-        <v>1</v>
-      </c>
-      <c r="F22" s="72">
-        <v>0</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="61"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-    </row>
-    <row r="23" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="31">
-        <v>6</v>
-      </c>
-      <c r="C23" s="31">
-        <v>90</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="37">
-        <v>2</v>
-      </c>
-      <c r="F23" s="72">
-        <v>0</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-    </row>
-    <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="31">
-        <v>7</v>
-      </c>
-      <c r="C24" s="31">
-        <v>90</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="37">
-        <v>2</v>
-      </c>
-      <c r="F24" s="72">
-        <v>0</v>
-      </c>
-      <c r="H24" s="32">
-        <v>0</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24" s="34">
-        <v>3</v>
-      </c>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
     </row>
     <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="31">
+      <c r="B25" s="28">
         <v>8</v>
       </c>
-      <c r="C25" s="60">
+      <c r="C25" s="51">
         <v>100</v>
       </c>
-      <c r="D25" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="37">
+      <c r="D25" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="34">
         <v>2</v>
       </c>
-      <c r="F25" s="73">
-        <v>0</v>
-      </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="47"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
+      <c r="F25" s="64">
+        <v>0</v>
+      </c>
+      <c r="H25" s="32"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="44"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
     </row>
     <row r="26" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
-      <c r="B26" s="31">
+      <c r="B26" s="28">
         <v>9</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="51">
         <v>80</v>
       </c>
-      <c r="D26" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="37">
+      <c r="D26" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="34">
         <v>3</v>
       </c>
-      <c r="F26" s="73">
-        <v>0</v>
-      </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="47"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
+      <c r="F26" s="64">
+        <v>0</v>
+      </c>
+      <c r="H26" s="35"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="44"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
       <c r="O26" s="10"/>
     </row>
     <row r="27" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
-      <c r="B27" s="39">
+      <c r="B27" s="36">
         <v>10</v>
       </c>
-      <c r="C27" s="69">
+      <c r="C27" s="60">
         <v>100</v>
       </c>
-      <c r="D27" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="40">
+      <c r="D27" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="37">
         <v>3</v>
       </c>
-      <c r="F27" s="74">
-        <v>0</v>
-      </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
+      <c r="F27" s="65">
+        <v>0</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
       <c r="O27" s="10"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
+      <c r="B28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
       <c r="O28" s="10"/>
     </row>
     <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
+      <c r="H29" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
       <c r="O29" s="10"/>
     </row>
     <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
+      <c r="H30" s="39">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>55</v>
+      </c>
+      <c r="J30" s="1">
+        <v>10</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
       <c r="O30" s="10"/>
     </row>
     <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="39">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>50</v>
+      </c>
+      <c r="J31" s="1">
+        <v>12</v>
+      </c>
+      <c r="K31" s="1">
+        <v>3</v>
+      </c>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
       <c r="O31" s="10"/>
     </row>
     <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
+        <v>93</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
       <c r="O32" s="10"/>
     </row>
-    <row r="33" spans="9:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
+    <row r="33" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>76</v>
+      </c>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
       <c r="O33" s="10"/>
     </row>
-    <row r="34" spans="9:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I34" s="22"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
+    <row r="34" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>122</v>
+      </c>
+      <c r="I34" s="19"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
       <c r="O34" s="10"/>
     </row>
-    <row r="35" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>83</v>
+      </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
@@ -2183,7 +2247,7 @@
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
     </row>
-    <row r="36" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
@@ -2193,13 +2257,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="Q3:U3"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
